--- a/output/1Y_P62_KFSDIV.xlsx
+++ b/output/1Y_P62_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.4338</v>
       </c>
       <c r="C2" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D2" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>12.9657</v>
       </c>
       <c r="C3" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E3" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="F3" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="H3" s="1">
-        <v>9651.5506</v>
+        <v>9613.0216</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9651.5506</v>
+        <v>9613.0216</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0348</v>
+        <v>-0.0387</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>13.3568</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E4" s="1">
-        <v>1515.6567</v>
+        <v>1512.6256</v>
       </c>
       <c r="F4" s="1">
-        <v>748.6823000000001</v>
+        <v>747.1831</v>
       </c>
       <c r="H4" s="1">
-        <v>20244.3239</v>
+        <v>20163.4508</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20244.3239</v>
+        <v>20163.4508</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.1956</v>
+        <v>13.222</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0302</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>13.2487</v>
       </c>
       <c r="C5" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D5" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E5" s="1">
-        <v>2264.3391</v>
+        <v>2259.8087</v>
       </c>
       <c r="F5" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="H5" s="1">
-        <v>29999.5489</v>
+        <v>29879.6431</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29999.5489</v>
+        <v>29879.6431</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.2489</v>
+        <v>13.2755</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0081</v>
+        <v>-0.0094</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>13.3991</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E6" s="1">
-        <v>3019.1301</v>
+        <v>3013.0931</v>
       </c>
       <c r="F6" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="H6" s="1">
-        <v>40453.626</v>
+        <v>40291.9843</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40453.626</v>
+        <v>40291.9843</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.2488</v>
+        <v>13.2754</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>815.1621</v>
+        <v>813.5311</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9184.8379</v>
+        <v>-9186.4689</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0114</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>13.5985</v>
       </c>
       <c r="C7" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D7" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E7" s="1">
-        <v>3765.4489</v>
+        <v>3757.9221</v>
       </c>
       <c r="F7" s="1">
-        <v>743.9388</v>
+        <v>742.4366</v>
       </c>
       <c r="H7" s="1">
-        <v>51204.4565</v>
+        <v>50999.888</v>
       </c>
       <c r="I7" s="1">
-        <v>815.1621</v>
+        <v>813.5311</v>
       </c>
       <c r="J7" s="1">
-        <v>52019.6186</v>
+        <v>51813.4192</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.2786</v>
+        <v>13.3052</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10116.4517</v>
+        <v>-10116.2187</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.031</v>
+        <v>0.0303</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>13.6955</v>
       </c>
       <c r="C8" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D8" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E8" s="1">
-        <v>4509.3877</v>
+        <v>4500.3587</v>
       </c>
       <c r="F8" s="1">
-        <v>738.6698</v>
+        <v>737.1779</v>
       </c>
       <c r="H8" s="1">
-        <v>61758.3189</v>
+        <v>61511.3529</v>
       </c>
       <c r="I8" s="1">
-        <v>698.7103</v>
+        <v>697.3124</v>
       </c>
       <c r="J8" s="1">
-        <v>62457.0292</v>
+        <v>62208.6653</v>
       </c>
       <c r="K8" s="1">
-        <v>60116.4517</v>
+        <v>60116.2187</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3314</v>
+        <v>13.3581</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10116.4517</v>
+        <v>-10116.2187</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0071</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>13.3398</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E9" s="1">
-        <v>5248.0574</v>
+        <v>5237.5366</v>
       </c>
       <c r="F9" s="1">
-        <v>758.3661</v>
+        <v>756.8338</v>
       </c>
       <c r="H9" s="1">
-        <v>70008.03660000001</v>
+        <v>69727.84880000001</v>
       </c>
       <c r="I9" s="1">
-        <v>582.2586</v>
+        <v>581.0937</v>
       </c>
       <c r="J9" s="1">
-        <v>70590.29519999999</v>
+        <v>70308.9425</v>
       </c>
       <c r="K9" s="1">
-        <v>70232.9034</v>
+        <v>70232.4375</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3826</v>
+        <v>13.4094</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1217.5347</v>
+        <v>1215.0969</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8898.917100000001</v>
+        <v>-8901.1219</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0258</v>
+        <v>-0.0263</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>12.8469</v>
       </c>
       <c r="C10" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D10" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E10" s="1">
-        <v>6006.4235</v>
+        <v>5994.3704</v>
       </c>
       <c r="F10" s="1">
-        <v>811.1556</v>
+        <v>809.4707</v>
       </c>
       <c r="H10" s="1">
-        <v>77163.9221</v>
+        <v>76855.0218</v>
       </c>
       <c r="I10" s="1">
-        <v>1683.3416</v>
+        <v>1679.9718</v>
       </c>
       <c r="J10" s="1">
-        <v>78847.2637</v>
+        <v>78534.9936</v>
       </c>
       <c r="K10" s="1">
-        <v>80349.35520000001</v>
+        <v>80348.6562</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3772</v>
+        <v>13.404</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10420.8354</v>
+        <v>-10419.9929</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0216</v>
+        <v>-0.0221</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>13.129</v>
       </c>
       <c r="C11" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D11" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E11" s="1">
-        <v>6817.5791</v>
+        <v>6803.8411</v>
       </c>
       <c r="F11" s="1">
-        <v>793.7265</v>
+        <v>792.0757</v>
       </c>
       <c r="H11" s="1">
-        <v>89507.9966</v>
+        <v>89148.68919999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1262.5062</v>
+        <v>1259.9788</v>
       </c>
       <c r="J11" s="1">
-        <v>90770.5028</v>
+        <v>90408.6681</v>
       </c>
       <c r="K11" s="1">
-        <v>90770.1906</v>
+        <v>90768.6492</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3141</v>
+        <v>13.3408</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10420.8354</v>
+        <v>-10419.9929</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0216</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>12.716</v>
       </c>
       <c r="C12" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D12" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E12" s="1">
-        <v>7611.3057</v>
+        <v>7595.9168</v>
       </c>
       <c r="F12" s="1">
-        <v>819.5058</v>
+        <v>817.7995</v>
       </c>
       <c r="H12" s="1">
-        <v>96785.3628</v>
+        <v>96396.7417</v>
       </c>
       <c r="I12" s="1">
-        <v>841.6708</v>
+        <v>839.9859</v>
       </c>
       <c r="J12" s="1">
-        <v>97627.03350000001</v>
+        <v>97236.7276</v>
       </c>
       <c r="K12" s="1">
-        <v>101191.026</v>
+        <v>101188.6421</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2948</v>
+        <v>13.3215</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1840.7464</v>
+        <v>1837.0371</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8580.089</v>
+        <v>-8582.9558</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0312</v>
+        <v>-0.0316</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>12.4613</v>
       </c>
       <c r="C13" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D13" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E13" s="1">
-        <v>8430.811400000001</v>
+        <v>8413.7163</v>
       </c>
       <c r="F13" s="1">
-        <v>983.9729</v>
+        <v>981.6383</v>
       </c>
       <c r="H13" s="1">
-        <v>105058.8705</v>
+        <v>104636.342</v>
       </c>
       <c r="I13" s="1">
-        <v>2261.5818</v>
+        <v>2257.0301</v>
       </c>
       <c r="J13" s="1">
-        <v>107320.4522</v>
+        <v>106893.372</v>
       </c>
       <c r="K13" s="1">
-        <v>111611.8613</v>
+        <v>111608.6351</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2386</v>
+        <v>13.2651</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12261.5818</v>
+        <v>-12257.0301</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0028</v>
+        <v>-0.0032</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>12.6545</v>
       </c>
       <c r="C14" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D14" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E14" s="1">
-        <v>9414.7844</v>
+        <v>9395.354600000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9414.7844</v>
+        <v>-9395.354600000001</v>
       </c>
       <c r="H14" s="1">
-        <v>119139.3886</v>
+        <v>118655.8126</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119139.3886</v>
+        <v>118655.8126</v>
       </c>
       <c r="K14" s="1">
-        <v>123873.4431</v>
+        <v>123865.6651</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1573</v>
+        <v>13.1837</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119139.3886</v>
+        <v>118655.8126</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0155</v>
+        <v>0.0151</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>13.4338</v>
       </c>
       <c r="C2" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D2" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>12.9657</v>
       </c>
       <c r="C3" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E3" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="F3" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9651.5506</v>
+        <v>9613.0216</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9651.5506</v>
+        <v>9613.0216</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0348</v>
+        <v>-0.0387</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>13.3568</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E4" s="1">
-        <v>1515.6567</v>
+        <v>1512.6256</v>
       </c>
       <c r="F4" s="1">
-        <v>730.3902</v>
+        <v>737.9201</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20244.3239</v>
+        <v>20163.4508</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20244.3239</v>
+        <v>20163.4508</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.1956</v>
+        <v>13.222</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9755.676100000001</v>
+        <v>-9876.027899999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0302</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>13.2487</v>
       </c>
       <c r="C5" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D5" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E5" s="1">
-        <v>2246.047</v>
+        <v>2250.5458</v>
       </c>
       <c r="F5" s="1">
-        <v>773.1172</v>
+        <v>762.6229</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29757.2023</v>
+        <v>29757.1661</v>
       </c>
       <c r="I5" s="1">
-        <v>244.3239</v>
+        <v>123.9721</v>
       </c>
       <c r="J5" s="1">
-        <v>30001.5262</v>
+        <v>29881.1382</v>
       </c>
       <c r="K5" s="1">
-        <v>29755.6761</v>
+        <v>29876.0279</v>
       </c>
       <c r="L5" s="1">
-        <v>13.248</v>
+        <v>13.275</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10242.7977</v>
+        <v>-10123.9721</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.008</v>
+        <v>-0.0094</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>13.3991</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E6" s="1">
-        <v>3019.1641</v>
+        <v>3013.1687</v>
       </c>
       <c r="F6" s="1">
-        <v>712.4298</v>
+        <v>725.9039</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40454.0823</v>
+        <v>40292.9958</v>
       </c>
       <c r="I6" s="1">
-        <v>1.5262</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40455.6085</v>
+        <v>40292.9958</v>
       </c>
       <c r="K6" s="1">
-        <v>39998.4738</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.2482</v>
+        <v>13.2751</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>808.5769</v>
+        <v>810.1965</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8737.3408</v>
+        <v>-8935.716200000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0114</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>13.5985</v>
       </c>
       <c r="C7" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D7" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E7" s="1">
-        <v>3731.5939</v>
+        <v>3739.0726</v>
       </c>
       <c r="F7" s="1">
-        <v>680.6574000000001</v>
+        <v>682.022</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50744.0798</v>
+        <v>50744.0754</v>
       </c>
       <c r="I7" s="1">
-        <v>1264.1854</v>
+        <v>1064.2838</v>
       </c>
       <c r="J7" s="1">
-        <v>52008.2653</v>
+        <v>51808.3593</v>
       </c>
       <c r="K7" s="1">
-        <v>49544.3915</v>
+        <v>49745.9126</v>
       </c>
       <c r="L7" s="1">
-        <v>13.277</v>
+        <v>13.3043</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9255.9202</v>
+        <v>-9293.026599999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0308</v>
+        <v>0.0301</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>13.6955</v>
       </c>
       <c r="C8" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D8" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E8" s="1">
-        <v>4412.2514</v>
+        <v>4421.0945</v>
       </c>
       <c r="F8" s="1">
-        <v>698.9166</v>
+        <v>700.3196</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>60427.9884</v>
+        <v>60427.9619</v>
       </c>
       <c r="I8" s="1">
-        <v>2008.2653</v>
+        <v>1771.2573</v>
       </c>
       <c r="J8" s="1">
-        <v>62436.2536</v>
+        <v>62199.2192</v>
       </c>
       <c r="K8" s="1">
-        <v>58800.3116</v>
+        <v>59038.9392</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3266</v>
+        <v>13.3539</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9572.0116</v>
+        <v>-9610.4156</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0069</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>13.3398</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E9" s="1">
-        <v>5111.1679</v>
+        <v>5121.4141</v>
       </c>
       <c r="F9" s="1">
-        <v>885.9235</v>
+        <v>887.7047</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>68181.95759999999</v>
+        <v>68181.898</v>
       </c>
       <c r="I9" s="1">
-        <v>2436.2536</v>
+        <v>2160.8417</v>
       </c>
       <c r="J9" s="1">
-        <v>70618.21120000001</v>
+        <v>70342.73970000001</v>
       </c>
       <c r="K9" s="1">
-        <v>68372.3233</v>
+        <v>68649.3548</v>
       </c>
       <c r="L9" s="1">
-        <v>13.377</v>
+        <v>13.4044</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1191.3079</v>
+        <v>1193.6955</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10626.7346</v>
+        <v>-10671.8099</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0251</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>12.8469</v>
       </c>
       <c r="C10" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D10" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E10" s="1">
-        <v>5997.0914</v>
+        <v>6009.1188</v>
       </c>
       <c r="F10" s="1">
-        <v>919.2505</v>
+        <v>892.5184</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>77044.0336</v>
+        <v>77044.11440000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1809.5191</v>
+        <v>1489.0318</v>
       </c>
       <c r="J10" s="1">
-        <v>78853.5527</v>
+        <v>78533.1462</v>
       </c>
       <c r="K10" s="1">
-        <v>80190.36569999999</v>
+        <v>80514.8602</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3715</v>
+        <v>13.3988</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11809.5191</v>
+        <v>-11489.0318</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0219</v>
+        <v>-0.0225</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>13.129</v>
       </c>
       <c r="C11" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D11" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E11" s="1">
-        <v>6916.3419</v>
+        <v>6901.6372</v>
       </c>
       <c r="F11" s="1">
-        <v>700.3844</v>
+        <v>730.3776</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>90804.6528</v>
+        <v>90430.0817</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>90804.6528</v>
+        <v>90430.0817</v>
       </c>
       <c r="K11" s="1">
-        <v>91999.8848</v>
+        <v>92003.89200000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3018</v>
+        <v>13.3307</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9195.3472</v>
+        <v>-9608.3362</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.022</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>12.716</v>
       </c>
       <c r="C12" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D12" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E12" s="1">
-        <v>7616.7263</v>
+        <v>7632.0148</v>
       </c>
       <c r="F12" s="1">
-        <v>849.6896</v>
+        <v>815.5762</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>96854.292</v>
+        <v>96854.84669999999</v>
       </c>
       <c r="I12" s="1">
-        <v>804.6528</v>
+        <v>391.6638</v>
       </c>
       <c r="J12" s="1">
-        <v>97658.9448</v>
+        <v>97246.5105</v>
       </c>
       <c r="K12" s="1">
-        <v>101195.232</v>
+        <v>101612.2282</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2859</v>
+        <v>13.3139</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1867.4123</v>
+        <v>1863.442</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8937.2405</v>
+        <v>-8528.221799999999</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0312</v>
+        <v>-0.0317</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>12.4613</v>
       </c>
       <c r="C13" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D13" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E13" s="1">
-        <v>8466.4159</v>
+        <v>8447.590899999999</v>
       </c>
       <c r="F13" s="1">
-        <v>952.3414</v>
+        <v>950.1167</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>105502.5487</v>
+        <v>105057.6201</v>
       </c>
       <c r="I13" s="1">
-        <v>1867.4123</v>
+        <v>1863.442</v>
       </c>
       <c r="J13" s="1">
-        <v>107369.961</v>
+        <v>106921.0621</v>
       </c>
       <c r="K13" s="1">
-        <v>111999.8848</v>
+        <v>112003.892</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2287</v>
+        <v>13.2587</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11867.4123</v>
+        <v>-11863.442</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0027</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>12.6545</v>
       </c>
       <c r="C14" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D14" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E14" s="1">
-        <v>9418.7574</v>
+        <v>9397.7076</v>
       </c>
       <c r="F14" s="1">
-        <v>-9418.7574</v>
+        <v>-9397.7076</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119189.6649</v>
+        <v>118685.5293</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119189.6649</v>
+        <v>118685.5293</v>
       </c>
       <c r="K14" s="1">
-        <v>123867.2971</v>
+        <v>123867.334</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1511</v>
+        <v>13.1806</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119189.6649</v>
+        <v>118685.5293</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0155</v>
+        <v>0.0151</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>13.4338</v>
       </c>
       <c r="C2" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D2" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>12.9657</v>
       </c>
       <c r="C3" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E3" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="F3" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9651.5506</v>
+        <v>9613.0216</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9651.5506</v>
+        <v>9613.0216</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0348</v>
+        <v>-0.0387</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>13.3568</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E4" s="1">
-        <v>1515.6567</v>
+        <v>1512.6256</v>
       </c>
       <c r="F4" s="1">
-        <v>741.6392</v>
+        <v>749.1916</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20244.3239</v>
+        <v>20163.4508</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20244.3239</v>
+        <v>20163.4508</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.1956</v>
+        <v>13.222</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9905.926100000001</v>
+        <v>-10026.8809</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0302</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>13.2487</v>
       </c>
       <c r="C5" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D5" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E5" s="1">
-        <v>2257.2959</v>
+        <v>2261.8172</v>
       </c>
       <c r="F5" s="1">
-        <v>761.8917</v>
+        <v>751.2594</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29906.2363</v>
+        <v>29906.1999</v>
       </c>
       <c r="I5" s="1">
-        <v>94.07389999999999</v>
+        <v>-26.8809</v>
       </c>
       <c r="J5" s="1">
-        <v>30000.3102</v>
+        <v>29879.319</v>
       </c>
       <c r="K5" s="1">
-        <v>29905.9261</v>
+        <v>30026.8809</v>
       </c>
       <c r="L5" s="1">
-        <v>13.2486</v>
+        <v>13.2756</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10094.0739</v>
+        <v>-9973.1191</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0081</v>
+        <v>-0.0094</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>13.3991</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E6" s="1">
-        <v>3019.1876</v>
+        <v>3013.0767</v>
       </c>
       <c r="F6" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>40454.396</v>
+        <v>40291.765</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40454.396</v>
+        <v>40291.765</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.2486</v>
+        <v>13.2755</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>812.6265</v>
+        <v>814.2542</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9187.3735</v>
+        <v>-9185.745800000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0114</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>13.5985</v>
       </c>
       <c r="C7" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D7" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E7" s="1">
-        <v>3765.5063</v>
+        <v>3757.9057</v>
       </c>
       <c r="F7" s="1">
-        <v>702.2672</v>
+        <v>718.8223</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>51205.238</v>
+        <v>50999.6654</v>
       </c>
       <c r="I7" s="1">
-        <v>812.6265</v>
+        <v>814.2542</v>
       </c>
       <c r="J7" s="1">
-        <v>52017.8645</v>
+        <v>51813.9196</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.2784</v>
+        <v>13.3053</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9549.7808</v>
+        <v>-9794.4573</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.031</v>
+        <v>0.0303</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>13.6955</v>
       </c>
       <c r="C8" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D8" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E8" s="1">
-        <v>4467.7736</v>
+        <v>4476.728</v>
       </c>
       <c r="F8" s="1">
-        <v>720.704</v>
+        <v>722.1507</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>61188.3928</v>
+        <v>61188.3661</v>
       </c>
       <c r="I8" s="1">
-        <v>1262.8457</v>
+        <v>1019.7969</v>
       </c>
       <c r="J8" s="1">
-        <v>62451.2386</v>
+        <v>62208.163</v>
       </c>
       <c r="K8" s="1">
-        <v>59549.7808</v>
+        <v>59794.4573</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3287</v>
+        <v>13.3567</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9870.401099999999</v>
+        <v>-9910.001700000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.007</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>13.3398</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E9" s="1">
-        <v>5188.4775</v>
+        <v>5198.8787</v>
       </c>
       <c r="F9" s="1">
-        <v>854.0192</v>
+        <v>831.1671</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>69213.2524</v>
+        <v>69213.19190000001</v>
       </c>
       <c r="I9" s="1">
-        <v>1392.4447</v>
+        <v>1109.7952</v>
       </c>
       <c r="J9" s="1">
-        <v>70605.6971</v>
+        <v>70322.9872</v>
       </c>
       <c r="K9" s="1">
-        <v>69420.18180000001</v>
+        <v>69704.459</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3797</v>
+        <v>13.4076</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1206.2989</v>
+        <v>1208.7166</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10186.1458</v>
+        <v>-9901.0787</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0255</v>
+        <v>-0.0261</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>12.8469</v>
       </c>
       <c r="C10" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D10" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E10" s="1">
-        <v>6042.4967</v>
+        <v>6030.0458</v>
       </c>
       <c r="F10" s="1">
-        <v>872.296</v>
+        <v>870.7422</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>77627.3505</v>
+        <v>77312.42329999999</v>
       </c>
       <c r="I10" s="1">
-        <v>1206.2989</v>
+        <v>1208.7166</v>
       </c>
       <c r="J10" s="1">
-        <v>78833.64939999999</v>
+        <v>78521.13989999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80812.6265</v>
+        <v>80814.2542</v>
       </c>
       <c r="L10" s="1">
-        <v>13.374</v>
+        <v>13.4019</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11206.2989</v>
+        <v>-11208.7166</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.022</v>
+        <v>-0.0224</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>13.129</v>
       </c>
       <c r="C11" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D11" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E11" s="1">
-        <v>6914.7926</v>
+        <v>6900.788</v>
       </c>
       <c r="F11" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>90784.3124</v>
+        <v>90418.9556</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>90784.3124</v>
+        <v>90418.9556</v>
       </c>
       <c r="K11" s="1">
-        <v>92018.92539999999</v>
+        <v>92022.9708</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3075</v>
+        <v>13.3351</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.022</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>12.716</v>
       </c>
       <c r="C12" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D12" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E12" s="1">
-        <v>7676.4653</v>
+        <v>7660.938</v>
       </c>
       <c r="F12" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>97613.9322</v>
+        <v>97221.8992</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>97613.9322</v>
+        <v>97221.8992</v>
       </c>
       <c r="K12" s="1">
-        <v>102018.9254</v>
+        <v>102022.9708</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2898</v>
+        <v>13.3173</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1866.994</v>
+        <v>1863.2128</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8133.006</v>
+        <v>-8136.7872</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0315</v>
+        <v>-0.0318</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>12.4613</v>
       </c>
       <c r="C13" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D13" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E13" s="1">
-        <v>8462.876099999999</v>
+        <v>8445.7749</v>
       </c>
       <c r="F13" s="1">
-        <v>952.3079</v>
+        <v>950.0983</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>105458.4377</v>
+        <v>105035.035</v>
       </c>
       <c r="I13" s="1">
-        <v>1866.994</v>
+        <v>1863.2128</v>
       </c>
       <c r="J13" s="1">
-        <v>107325.4317</v>
+        <v>106898.2477</v>
       </c>
       <c r="K13" s="1">
-        <v>112018.9254</v>
+        <v>112022.9708</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2365</v>
+        <v>13.2638</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11866.994</v>
+        <v>-11863.2128</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0027</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>12.6545</v>
       </c>
       <c r="C14" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D14" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E14" s="1">
-        <v>9415.1839</v>
+        <v>9395.8732</v>
       </c>
       <c r="F14" s="1">
-        <v>-9415.1839</v>
+        <v>-9395.8732</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119144.4452</v>
+        <v>118662.3622</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>119144.4452</v>
+        <v>118662.3622</v>
       </c>
       <c r="K14" s="1">
-        <v>123885.9194</v>
+        <v>123886.1835</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1581</v>
+        <v>13.1852</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119144.4452</v>
+        <v>118662.3622</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0155</v>
+        <v>0.0151</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>13.4338</v>
       </c>
       <c r="C2" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D2" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>12.9657</v>
       </c>
       <c r="C3" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E3" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="F3" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9651.5506</v>
+        <v>9613.0216</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9651.5506</v>
+        <v>9613.0216</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0348</v>
+        <v>-0.0387</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>13.3568</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E4" s="1">
-        <v>1515.6567</v>
+        <v>1512.6256</v>
       </c>
       <c r="F4" s="1">
-        <v>748.6823000000001</v>
+        <v>747.1831</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20244.3239</v>
+        <v>20163.4508</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20244.3239</v>
+        <v>20163.4508</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.1956</v>
+        <v>13.222</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0302</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>13.2487</v>
       </c>
       <c r="C5" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D5" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E5" s="1">
-        <v>2264.3391</v>
+        <v>2259.8087</v>
       </c>
       <c r="F5" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29999.5489</v>
+        <v>29879.6431</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29999.5489</v>
+        <v>29879.6431</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.2489</v>
+        <v>13.2755</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0081</v>
+        <v>-0.0094</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>13.3991</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E6" s="1">
-        <v>3019.1301</v>
+        <v>3013.0931</v>
       </c>
       <c r="F6" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>40453.626</v>
+        <v>40291.9843</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40453.626</v>
+        <v>40291.9843</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.2488</v>
+        <v>13.2754</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>815.1621</v>
+        <v>813.5311</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9184.8379</v>
+        <v>-9186.4689</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0114</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>13.5985</v>
       </c>
       <c r="C7" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D7" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E7" s="1">
-        <v>3765.4489</v>
+        <v>3757.9221</v>
       </c>
       <c r="F7" s="1">
-        <v>758.5906</v>
+        <v>775.1846</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>51204.4565</v>
+        <v>50999.888</v>
       </c>
       <c r="I7" s="1">
-        <v>815.1621</v>
+        <v>813.5311</v>
       </c>
       <c r="J7" s="1">
-        <v>52019.6186</v>
+        <v>51813.4192</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.2786</v>
+        <v>13.3052</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10315.6941</v>
+        <v>-10562.4326</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.031</v>
+        <v>0.0303</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>13.6955</v>
       </c>
       <c r="C8" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D8" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E8" s="1">
-        <v>4524.0395</v>
+        <v>4533.1067</v>
       </c>
       <c r="F8" s="1">
-        <v>743.0448</v>
+        <v>744.5363</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>61958.9824</v>
+        <v>61958.9553</v>
       </c>
       <c r="I8" s="1">
-        <v>499.468</v>
+        <v>251.0985</v>
       </c>
       <c r="J8" s="1">
-        <v>62458.4504</v>
+        <v>62210.0538</v>
       </c>
       <c r="K8" s="1">
-        <v>60315.6941</v>
+        <v>60562.4326</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3323</v>
+        <v>13.36</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10176.3697</v>
+        <v>-10217.1974</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0071</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>13.3398</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E9" s="1">
-        <v>5267.0842</v>
+        <v>5277.643</v>
       </c>
       <c r="F9" s="1">
-        <v>773.8570999999999</v>
+        <v>750.6753</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>70261.8502</v>
+        <v>70261.78879999999</v>
       </c>
       <c r="I9" s="1">
-        <v>323.0983</v>
+        <v>33.9011</v>
       </c>
       <c r="J9" s="1">
-        <v>70584.9486</v>
+        <v>70295.69</v>
       </c>
       <c r="K9" s="1">
-        <v>70492.0637</v>
+        <v>70779.63</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3835</v>
+        <v>13.4112</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1221.4907</v>
+        <v>1223.9388</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9101.6077</v>
+        <v>-8809.962299999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0259</v>
+        <v>-0.0265</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>12.8469</v>
       </c>
       <c r="C10" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D10" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E10" s="1">
-        <v>6040.9413</v>
+        <v>6028.3183</v>
       </c>
       <c r="F10" s="1">
-        <v>873.4785000000001</v>
+        <v>871.9248</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>77607.3686</v>
+        <v>77290.2742</v>
       </c>
       <c r="I10" s="1">
-        <v>1221.4907</v>
+        <v>1223.9388</v>
       </c>
       <c r="J10" s="1">
-        <v>78828.8593</v>
+        <v>78514.213</v>
       </c>
       <c r="K10" s="1">
-        <v>80815.1621</v>
+        <v>80813.53109999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3779</v>
+        <v>13.4057</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11221.4907</v>
+        <v>-11223.9388</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0218</v>
+        <v>-0.0222</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>13.129</v>
       </c>
       <c r="C11" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D11" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E11" s="1">
-        <v>6914.4198</v>
+        <v>6900.243</v>
       </c>
       <c r="F11" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>90779.41710000001</v>
+        <v>90411.81449999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>90779.41710000001</v>
+        <v>90411.81449999999</v>
       </c>
       <c r="K11" s="1">
-        <v>92036.65270000001</v>
+        <v>92037.4699</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3108</v>
+        <v>13.3383</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.022</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>12.716</v>
       </c>
       <c r="C12" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D12" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E12" s="1">
-        <v>7676.0924</v>
+        <v>7660.3929</v>
       </c>
       <c r="F12" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>97609.1909</v>
+        <v>97214.9826</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>97609.1909</v>
+        <v>97214.9826</v>
       </c>
       <c r="K12" s="1">
-        <v>102036.6527</v>
+        <v>102037.4699</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2928</v>
+        <v>13.3201</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1866.8933</v>
+        <v>1863.0656</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8133.1067</v>
+        <v>-8136.9344</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0315</v>
+        <v>-0.0318</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>12.4613</v>
       </c>
       <c r="C13" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D13" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E13" s="1">
-        <v>8462.503199999999</v>
+        <v>8445.2299</v>
       </c>
       <c r="F13" s="1">
-        <v>952.2998</v>
+        <v>950.0865</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>105453.7913</v>
+        <v>105028.257</v>
       </c>
       <c r="I13" s="1">
-        <v>1866.8933</v>
+        <v>1863.0656</v>
       </c>
       <c r="J13" s="1">
-        <v>107320.6847</v>
+        <v>106891.3226</v>
       </c>
       <c r="K13" s="1">
-        <v>112036.6527</v>
+        <v>112037.4699</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2392</v>
+        <v>13.2664</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11866.8933</v>
+        <v>-11863.0656</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0027</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>12.6545</v>
       </c>
       <c r="C14" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D14" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E14" s="1">
-        <v>9414.803</v>
+        <v>9395.3164</v>
       </c>
       <c r="F14" s="1">
-        <v>-9414.803</v>
+        <v>-9395.3164</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119139.6246</v>
+        <v>118655.3303</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119139.6246</v>
+        <v>118655.3303</v>
       </c>
       <c r="K14" s="1">
-        <v>123903.5461</v>
+        <v>123900.5356</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1605</v>
+        <v>13.1875</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119139.6246</v>
+        <v>118655.3303</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0155</v>
+        <v>0.0151</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>13.4338</v>
       </c>
       <c r="C2" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D2" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>12.9657</v>
       </c>
       <c r="C3" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E3" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="F3" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9651.5506</v>
+        <v>9613.0216</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9651.5506</v>
+        <v>9613.0216</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0348</v>
+        <v>-0.0387</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>13.3568</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E4" s="1">
-        <v>1515.6567</v>
+        <v>1512.6256</v>
       </c>
       <c r="F4" s="1">
-        <v>748.6823000000001</v>
+        <v>747.1831</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20244.3239</v>
+        <v>20163.4508</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20244.3239</v>
+        <v>20163.4508</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.1956</v>
+        <v>13.222</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0302</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>13.2487</v>
       </c>
       <c r="C5" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D5" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E5" s="1">
-        <v>2264.3391</v>
+        <v>2259.8087</v>
       </c>
       <c r="F5" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29999.5489</v>
+        <v>29879.6431</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29999.5489</v>
+        <v>29879.6431</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.2489</v>
+        <v>13.2755</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0081</v>
+        <v>-0.0094</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>13.3991</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E6" s="1">
-        <v>3019.1301</v>
+        <v>3013.0931</v>
       </c>
       <c r="F6" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>40453.626</v>
+        <v>40291.9843</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40453.626</v>
+        <v>40291.9843</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.2488</v>
+        <v>13.2754</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>815.1621</v>
+        <v>813.5311</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9184.8379</v>
+        <v>-9186.4689</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0114</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>13.5985</v>
       </c>
       <c r="C7" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D7" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E7" s="1">
-        <v>3765.4489</v>
+        <v>3757.9221</v>
       </c>
       <c r="F7" s="1">
-        <v>795.3202</v>
+        <v>793.6129</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>51204.4565</v>
+        <v>50999.888</v>
       </c>
       <c r="I7" s="1">
-        <v>815.1621</v>
+        <v>813.5311</v>
       </c>
       <c r="J7" s="1">
-        <v>52019.6186</v>
+        <v>51813.4192</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.2786</v>
+        <v>13.3052</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10815.1621</v>
+        <v>-10813.5311</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.031</v>
+        <v>0.0303</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>13.6955</v>
       </c>
       <c r="C8" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D8" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E8" s="1">
-        <v>4560.7691</v>
+        <v>4551.535</v>
       </c>
       <c r="F8" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>62462.0132</v>
+        <v>62210.8352</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>62462.0132</v>
+        <v>62210.8352</v>
       </c>
       <c r="K8" s="1">
-        <v>60815.1621</v>
+        <v>60813.5311</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3344</v>
+        <v>13.3611</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0071</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>13.3398</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E9" s="1">
-        <v>5290.9359</v>
+        <v>5280.2439</v>
       </c>
       <c r="F9" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>70580.0273</v>
+        <v>70296.4154</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>70580.0273</v>
+        <v>70296.4154</v>
       </c>
       <c r="K9" s="1">
-        <v>70815.1621</v>
+        <v>70813.53109999999</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3842</v>
+        <v>13.411</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1231.4077</v>
+        <v>1228.9144</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8768.5923</v>
+        <v>-8771.0856</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.026</v>
+        <v>-0.0265</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>12.8469</v>
       </c>
       <c r="C10" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D10" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E10" s="1">
-        <v>6040.5724</v>
+        <v>6028.3829</v>
       </c>
       <c r="F10" s="1">
-        <v>874.2504</v>
+        <v>872.3113</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>77602.6292</v>
+        <v>77291.1032</v>
       </c>
       <c r="I10" s="1">
-        <v>1231.4077</v>
+        <v>1228.9144</v>
       </c>
       <c r="J10" s="1">
-        <v>78834.0368</v>
+        <v>78520.01760000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80815.1621</v>
+        <v>80813.53109999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3787</v>
+        <v>13.4055</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11231.4077</v>
+        <v>-11228.9144</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0217</v>
+        <v>-0.0221</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>13.129</v>
       </c>
       <c r="C11" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D11" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E11" s="1">
-        <v>6914.8228</v>
+        <v>6900.6942</v>
       </c>
       <c r="F11" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>90784.7083</v>
+        <v>90417.7262</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>90784.7083</v>
+        <v>90417.7262</v>
       </c>
       <c r="K11" s="1">
-        <v>92046.56969999999</v>
+        <v>92042.44560000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3115</v>
+        <v>13.3381</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.022</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>12.716</v>
       </c>
       <c r="C12" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D12" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E12" s="1">
-        <v>7676.4954</v>
+        <v>7660.8441</v>
       </c>
       <c r="F12" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>97614.31570000001</v>
+        <v>97220.70849999999</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>97614.31570000001</v>
+        <v>97220.70849999999</v>
       </c>
       <c r="K12" s="1">
-        <v>102046.5697</v>
+        <v>102042.4456</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2934</v>
+        <v>13.32</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1867.0022</v>
+        <v>1863.1874</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8132.9978</v>
+        <v>-8136.8126</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0315</v>
+        <v>-0.0318</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>12.4613</v>
       </c>
       <c r="C13" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D13" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E13" s="1">
-        <v>8462.906199999999</v>
+        <v>8445.6811</v>
       </c>
       <c r="F13" s="1">
-        <v>952.3085</v>
+        <v>950.0963</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>105458.8135</v>
+        <v>105033.8682</v>
       </c>
       <c r="I13" s="1">
-        <v>1867.0022</v>
+        <v>1863.1874</v>
       </c>
       <c r="J13" s="1">
-        <v>107325.8157</v>
+        <v>106897.0556</v>
       </c>
       <c r="K13" s="1">
-        <v>112046.5697</v>
+        <v>112042.4456</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2397</v>
+        <v>13.2662</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11867.0022</v>
+        <v>-11863.1874</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0027</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>12.6545</v>
       </c>
       <c r="C14" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D14" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E14" s="1">
-        <v>9415.2148</v>
+        <v>9395.777400000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9415.2148</v>
+        <v>-9395.777400000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119144.8351</v>
+        <v>118661.1517</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>119144.8351</v>
+        <v>118661.1517</v>
       </c>
       <c r="K14" s="1">
-        <v>123913.5719</v>
+        <v>123905.633</v>
       </c>
       <c r="L14" s="1">
-        <v>13.161</v>
+        <v>13.1874</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119144.8351</v>
+        <v>118661.1517</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0155</v>
+        <v>0.0151</v>
       </c>
     </row>
   </sheetData>
@@ -4451,10 +4451,10 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.1573</v>
+        <v>13.1837</v>
       </c>
       <c r="D3" s="1">
-        <v>13.1511</v>
+        <v>13.1806</v>
       </c>
       <c r="E3" s="1">
-        <v>13.1581</v>
+        <v>13.1852</v>
       </c>
       <c r="F3" s="1">
-        <v>13.1605</v>
+        <v>13.1875</v>
       </c>
       <c r="G3" s="1">
-        <v>13.161</v>
+        <v>13.1874</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.0564</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0076</v>
+        <v>-0.02</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0071</v>
+        <v>-0.0197</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0076</v>
+        <v>-0.0199</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0076</v>
+        <v>-0.0201</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0076</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.0805</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0784</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="D5" s="3">
-        <v>0.07820000000000001</v>
+        <v>0.0791</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0786</v>
+        <v>0.0794</v>
       </c>
       <c r="F5" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.0794</v>
       </c>
       <c r="G5" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.0794</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.9526</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.3563</v>
+        <v>-0.5095</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.3505</v>
+        <v>-0.5052</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.3548</v>
+        <v>-0.5072</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.3553</v>
+        <v>-0.5084</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.3545</v>
+        <v>-0.5076000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0134</v>
+        <v>-0.0208</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0126</v>
+        <v>-0.0204</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0132</v>
+        <v>-0.0207</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0133</v>
+        <v>-0.0207</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.0132</v>
+        <v>-0.0206</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3873.4431</v>
+        <v>3865.6651</v>
       </c>
       <c r="D8" s="1">
-        <v>3867.2971</v>
+        <v>3867.334</v>
       </c>
       <c r="E8" s="1">
-        <v>3885.9194</v>
+        <v>3886.1835</v>
       </c>
       <c r="F8" s="1">
-        <v>3903.5461</v>
+        <v>3900.5356</v>
       </c>
       <c r="G8" s="1">
-        <v>3913.5719</v>
+        <v>3905.633</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P62_KFSDIV.xlsx
+++ b/output/1Y_P62_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>4808.1675</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9581</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9586</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.958</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9578</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
